--- a/public/product_demo.xlsx
+++ b/public/product_demo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>product_name</t>
   </si>
@@ -52,54 +52,6 @@
   </si>
   <si>
     <t>product_image</t>
-  </si>
-  <si>
-    <t>Bearing</t>
-  </si>
-  <si>
-    <t>TN</t>
-  </si>
-  <si>
-    <t>TS</t>
-  </si>
-  <si>
-    <t>TJ</t>
-  </si>
-  <si>
-    <t>TE</t>
-  </si>
-  <si>
-    <t>TI</t>
-  </si>
-  <si>
-    <t>TB</t>
-  </si>
-  <si>
-    <t>TU</t>
-  </si>
-  <si>
-    <t>THM</t>
-  </si>
-  <si>
-    <t>TG</t>
-  </si>
-  <si>
-    <t>NSK-Japan</t>
-  </si>
-  <si>
-    <t>NTN-Japan</t>
-  </si>
-  <si>
-    <t>Koyo Japan</t>
-  </si>
-  <si>
-    <t>GT China</t>
-  </si>
-  <si>
-    <t>Nachi-Japan</t>
-  </si>
-  <si>
-    <t>THH</t>
   </si>
 </sst>
 </file>
@@ -456,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -516,363 +468,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2">
-        <v>6000</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>6001</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>6002</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5">
-        <v>6003</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>6004</v>
-      </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>6005</v>
-      </c>
-      <c r="H7">
-        <v>15</v>
-      </c>
-      <c r="I7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8">
-        <v>6006</v>
-      </c>
-      <c r="H8">
-        <v>15</v>
-      </c>
-      <c r="I8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9">
-        <v>6006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10">
-        <v>6200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11">
-        <v>6201</v>
-      </c>
-      <c r="H11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>6202</v>
-      </c>
-      <c r="H12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <v>6203</v>
-      </c>
-      <c r="H13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14">
-        <v>6204</v>
-      </c>
-      <c r="H14">
-        <v>12</v>
-      </c>
-      <c r="I14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15">
-        <v>6205</v>
-      </c>
-      <c r="H15">
-        <v>15</v>
-      </c>
-      <c r="I15">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16">
-        <v>6206</v>
-      </c>
-      <c r="H16">
-        <v>18</v>
-      </c>
-      <c r="I16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>6206</v>
-      </c>
-      <c r="H17">
-        <v>18</v>
-      </c>
-      <c r="I17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18">
-        <v>6300</v>
-      </c>
-      <c r="H18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>6301</v>
-      </c>
-      <c r="H19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20">
-        <v>6302</v>
-      </c>
-      <c r="H20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21">
-        <v>6302</v>
-      </c>
-      <c r="H21">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H22">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
